--- a/REGULAR/OJT/NEW DONE/DIMAPILIS ANTHONY A..xlsx
+++ b/REGULAR/OJT/NEW DONE/DIMAPILIS ANTHONY A..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5444776-44A2-4585-958D-E7C4B767DE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="281">
   <si>
     <t>PERIOD</t>
   </si>
@@ -903,7 +902,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1598,26 +1597,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K534" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K534" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K534" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K534"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICVLARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1924,32 +1923,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="3525" topLeftCell="A493" activePane="bottomLeft"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B504" sqref="B504"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
@@ -1970,7 +1971,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -1992,7 +1993,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -2012,7 +2013,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>17</v>
@@ -2020,7 +2021,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2033,7 +2034,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2050,7 +2051,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>22</v>
@@ -2094,7 +2095,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>227.78700000000003</v>
+        <v>230.28700000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2104,12 +2105,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>257.375</v>
+        <v>259.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>100</v>
       </c>
@@ -2128,7 +2129,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>34715</v>
       </c>
@@ -2148,7 +2149,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>34731</v>
       </c>
@@ -2168,7 +2169,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>34759</v>
@@ -2189,7 +2190,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A104" si="0">EDATE(A13,1)</f>
         <v>34790</v>
@@ -2210,7 +2211,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -2231,7 +2232,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -2252,7 +2253,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -2273,7 +2274,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -2294,7 +2295,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -2315,7 +2316,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -2342,7 +2343,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -2363,7 +2364,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -2388,7 +2389,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>101</v>
       </c>
@@ -2410,7 +2411,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f>EDATE(A22,1)</f>
         <v>35065</v>
@@ -2431,7 +2432,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>35096</v>
@@ -2452,7 +2453,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>35125</v>
@@ -2473,7 +2474,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -2494,7 +2495,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -2515,7 +2516,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -2536,7 +2537,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -2561,7 +2562,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -2582,7 +2583,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -2607,7 +2608,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -2634,7 +2635,7 @@
         <v>35339</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>129</v>
@@ -2656,7 +2657,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f>EDATE(A33,1)</f>
         <v>35370</v>
@@ -2677,7 +2678,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -2704,7 +2705,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>102</v>
       </c>
@@ -2726,7 +2727,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f>EDATE(A36,1)</f>
         <v>35431</v>
@@ -2753,7 +2754,7 @@
         <v>35441</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -2780,7 +2781,7 @@
         <v>35476</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -2801,7 +2802,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -2828,7 +2829,7 @@
         <v>35521</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -2849,7 +2850,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -2870,7 +2871,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -2897,7 +2898,7 @@
         <v>35613</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>35643</v>
@@ -2918,7 +2919,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -2945,7 +2946,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -2972,7 +2973,7 @@
         <v>35716</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>136</v>
@@ -2994,7 +2995,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f>EDATE(A47,1)</f>
         <v>35735</v>
@@ -3015,7 +3016,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -3036,7 +3037,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>103</v>
       </c>
@@ -3058,7 +3059,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f>EDATE(A50,1)</f>
         <v>35796</v>
@@ -3085,7 +3086,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="0"/>
         <v>35827</v>
@@ -3112,7 +3113,7 @@
         <v>35831</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>35855</v>
@@ -3139,7 +3140,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>136</v>
@@ -3161,7 +3162,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f>EDATE(A54,1)</f>
         <v>35886</v>
@@ -3182,7 +3183,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -3209,7 +3210,7 @@
         <v>35920</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="20" t="s">
         <v>126</v>
@@ -3231,7 +3232,7 @@
         <v>35936</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>136</v>
@@ -3253,7 +3254,7 @@
         <v>35930</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f>EDATE(A57,1)</f>
         <v>35947</v>
@@ -3280,7 +3281,7 @@
         <v>35968</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>137</v>
@@ -3300,7 +3301,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f>EDATE(A60,1)</f>
         <v>35977</v>
@@ -3327,7 +3328,7 @@
         <v>35991</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>138</v>
@@ -3347,7 +3348,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f>EDATE(A62,1)</f>
         <v>36008</v>
@@ -3372,7 +3373,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>123</v>
@@ -3391,7 +3392,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>123</v>
@@ -3410,7 +3411,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f>EDATE(A64,1)</f>
         <v>36039</v>
@@ -3433,7 +3434,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="0"/>
         <v>36069</v>
@@ -3460,7 +3461,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>146</v>
@@ -3482,7 +3483,7 @@
         <v>36090</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f>EDATE(A68,1)</f>
         <v>36100</v>
@@ -3507,7 +3508,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -3532,7 +3533,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>149</v>
@@ -3552,7 +3553,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>104</v>
       </c>
@@ -3574,7 +3575,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f>EDATE(A71,1)</f>
         <v>36161</v>
@@ -3599,7 +3600,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f t="shared" si="0"/>
         <v>36192</v>
@@ -3624,7 +3625,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>152</v>
@@ -3644,7 +3645,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f>EDATE(A75,1)</f>
         <v>36220</v>
@@ -3669,7 +3670,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" si="0"/>
         <v>36251</v>
@@ -3690,7 +3691,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -3717,7 +3718,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>154</v>
@@ -3737,7 +3738,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f>EDATE(A79,1)</f>
         <v>36312</v>
@@ -3764,7 +3765,7 @@
         <v>36315</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>151</v>
@@ -3784,7 +3785,7 @@
         <v>36336</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>156</v>
@@ -3804,7 +3805,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f>EDATE(A81,1)</f>
         <v>36342</v>
@@ -3825,7 +3826,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -3852,7 +3853,7 @@
         <v>36377</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>123</v>
@@ -3874,7 +3875,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>126</v>
@@ -3896,7 +3897,7 @@
         <v>36384</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f>EDATE(A85,1)</f>
         <v>36404</v>
@@ -3921,7 +3922,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>151</v>
@@ -3938,7 +3939,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>160</v>
@@ -3958,7 +3959,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f>EDATE(A88,1)</f>
         <v>36434</v>
@@ -3985,7 +3986,7 @@
         <v>36446</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -4010,7 +4011,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>162</v>
@@ -4030,7 +4031,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f>EDATE(A92,1)</f>
         <v>36495</v>
@@ -4057,7 +4058,7 @@
         <v>36508</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>146</v>
@@ -4079,7 +4080,7 @@
         <v>36518</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>128</v>
@@ -4101,7 +4102,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>163</v>
@@ -4121,7 +4122,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
         <v>105</v>
       </c>
@@ -4143,7 +4144,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <f>EDATE(A94,1)</f>
         <v>36526</v>
@@ -4168,7 +4169,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f t="shared" si="0"/>
         <v>36557</v>
@@ -4195,7 +4196,7 @@
         <v>36564</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>151</v>
@@ -4215,7 +4216,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>165</v>
@@ -4235,7 +4236,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f>EDATE(A100,1)</f>
         <v>36586</v>
@@ -4260,7 +4261,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f t="shared" si="0"/>
         <v>36617</v>
@@ -4287,7 +4288,7 @@
         <v>36633</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>167</v>
@@ -4307,7 +4308,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f>EDATE(A104,1)</f>
         <v>36647</v>
@@ -4334,7 +4335,7 @@
         <v>36651</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
         <v>126</v>
@@ -4356,7 +4357,7 @@
         <v>36661</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>168</v>
@@ -4376,7 +4377,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f>EDATE(A106,1)</f>
         <v>36678</v>
@@ -4403,7 +4404,7 @@
         <v>36690</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>126</v>
@@ -4425,7 +4426,7 @@
         <v>36699</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>126</v>
@@ -4447,7 +4448,7 @@
         <v>36703</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>169</v>
@@ -4467,7 +4468,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f>EDATE(A109,1)</f>
         <v>36708</v>
@@ -4494,7 +4495,7 @@
         <v>36738</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f>EDATE(A113,1)</f>
         <v>36739</v>
@@ -4519,7 +4520,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f t="shared" ref="A115:A183" si="1">EDATE(A114,1)</f>
         <v>36770</v>
@@ -4540,7 +4541,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -4567,7 +4568,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f t="shared" si="1"/>
         <v>36831</v>
@@ -4588,7 +4589,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f t="shared" si="1"/>
         <v>36861</v>
@@ -4613,7 +4614,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
         <v>106</v>
       </c>
@@ -4635,7 +4636,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f>EDATE(A118,1)</f>
         <v>36892</v>
@@ -4656,7 +4657,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <f t="shared" si="1"/>
         <v>36923</v>
@@ -4677,7 +4678,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f t="shared" si="1"/>
         <v>36951</v>
@@ -4698,7 +4699,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f t="shared" si="1"/>
         <v>36982</v>
@@ -4719,7 +4720,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f t="shared" si="1"/>
         <v>37012</v>
@@ -4740,7 +4741,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f t="shared" si="1"/>
         <v>37043</v>
@@ -4761,7 +4762,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -4782,7 +4783,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <f t="shared" si="1"/>
         <v>37104</v>
@@ -4803,7 +4804,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -4824,7 +4825,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -4851,7 +4852,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f t="shared" si="1"/>
         <v>37196</v>
@@ -4872,7 +4873,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f t="shared" si="1"/>
         <v>37226</v>
@@ -4897,7 +4898,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>107</v>
       </c>
@@ -4919,7 +4920,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f>EDATE(A131,1)</f>
         <v>37257</v>
@@ -4940,7 +4941,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f t="shared" si="1"/>
         <v>37288</v>
@@ -4967,7 +4968,7 @@
         <v>37305</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f t="shared" si="1"/>
         <v>37316</v>
@@ -4994,7 +4995,7 @@
         <v>37342</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f t="shared" si="1"/>
         <v>37347</v>
@@ -5015,7 +5016,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -5036,7 +5037,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -5057,7 +5058,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f t="shared" si="1"/>
         <v>37438</v>
@@ -5078,7 +5079,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -5103,7 +5104,7 @@
         <v>37527</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -5124,7 +5125,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -5145,7 +5146,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <f t="shared" si="1"/>
         <v>37561</v>
@@ -5172,7 +5173,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>129</v>
@@ -5191,7 +5192,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f>EDATE(A143,1)</f>
         <v>37591</v>
@@ -5212,7 +5213,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
         <v>108</v>
       </c>
@@ -5234,7 +5235,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f>EDATE(A145,1)</f>
         <v>37622</v>
@@ -5259,7 +5260,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <f t="shared" si="1"/>
         <v>37653</v>
@@ -5284,7 +5285,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <f t="shared" si="1"/>
         <v>37681</v>
@@ -5305,7 +5306,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <f t="shared" si="1"/>
         <v>37712</v>
@@ -5326,7 +5327,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <f t="shared" si="1"/>
         <v>37742</v>
@@ -5347,7 +5348,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -5374,7 +5375,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f t="shared" si="1"/>
         <v>37803</v>
@@ -5395,7 +5396,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <f t="shared" si="1"/>
         <v>37834</v>
@@ -5420,7 +5421,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -5441,7 +5442,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -5462,7 +5463,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <f t="shared" si="1"/>
         <v>37926</v>
@@ -5483,7 +5484,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -5508,7 +5509,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="48" t="s">
         <v>109</v>
       </c>
@@ -5530,7 +5531,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <f>EDATE(A158,1)</f>
         <v>37987</v>
@@ -5551,7 +5552,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -5572,7 +5573,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f t="shared" si="1"/>
         <v>38047</v>
@@ -5593,7 +5594,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -5614,7 +5615,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -5635,7 +5636,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -5656,7 +5657,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -5677,7 +5678,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -5704,7 +5705,7 @@
         <v>38200</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -5731,7 +5732,7 @@
         <v>38258</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <f t="shared" si="1"/>
         <v>38261</v>
@@ -5752,7 +5753,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -5779,7 +5780,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -5800,7 +5801,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="48" t="s">
         <v>110</v>
       </c>
@@ -5822,7 +5823,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <f>EDATE(A171,1)</f>
         <v>38353</v>
@@ -5843,7 +5844,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <f t="shared" si="1"/>
         <v>38384</v>
@@ -5864,7 +5865,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f t="shared" si="1"/>
         <v>38412</v>
@@ -5885,7 +5886,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -5906,7 +5907,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f t="shared" si="1"/>
         <v>38473</v>
@@ -5927,7 +5928,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -5948,7 +5949,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f t="shared" si="1"/>
         <v>38534</v>
@@ -5969,7 +5970,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -5990,7 +5991,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -6015,7 +6016,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -6036,7 +6037,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <f t="shared" si="1"/>
         <v>38657</v>
@@ -6057,7 +6058,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <f t="shared" ref="A184:A258" si="2">EDATE(A183,1)</f>
         <v>38687</v>
@@ -6082,7 +6083,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>183</v>
@@ -6104,7 +6105,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="48" t="s">
         <v>111</v>
       </c>
@@ -6126,7 +6127,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <f>EDATE(A184,1)</f>
         <v>38718</v>
@@ -6147,7 +6148,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <f t="shared" si="2"/>
         <v>38749</v>
@@ -6168,7 +6169,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <f t="shared" si="2"/>
         <v>38777</v>
@@ -6189,7 +6190,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <f t="shared" si="2"/>
         <v>38808</v>
@@ -6210,7 +6211,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <f t="shared" si="2"/>
         <v>38838</v>
@@ -6231,7 +6232,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -6252,7 +6253,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -6273,7 +6274,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <f t="shared" si="2"/>
         <v>38930</v>
@@ -6294,7 +6295,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -6319,7 +6320,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f t="shared" si="2"/>
         <v>38991</v>
@@ -6340,7 +6341,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -6365,7 +6366,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <f t="shared" si="2"/>
         <v>39052</v>
@@ -6390,7 +6391,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="48" t="s">
         <v>112</v>
       </c>
@@ -6412,7 +6413,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <f>EDATE(A198,1)</f>
         <v>39083</v>
@@ -6433,7 +6434,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <f t="shared" si="2"/>
         <v>39114</v>
@@ -6458,7 +6459,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <f t="shared" si="2"/>
         <v>39142</v>
@@ -6479,7 +6480,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <f t="shared" si="2"/>
         <v>39173</v>
@@ -6500,7 +6501,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <f t="shared" si="2"/>
         <v>39203</v>
@@ -6521,7 +6522,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f t="shared" si="2"/>
         <v>39234</v>
@@ -6542,7 +6543,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <f t="shared" si="2"/>
         <v>39264</v>
@@ -6563,7 +6564,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <f t="shared" si="2"/>
         <v>39295</v>
@@ -6584,7 +6585,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -6605,7 +6606,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <f t="shared" si="2"/>
         <v>39356</v>
@@ -6626,7 +6627,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -6653,7 +6654,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <f t="shared" si="2"/>
         <v>39417</v>
@@ -6674,7 +6675,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="48" t="s">
         <v>113</v>
       </c>
@@ -6696,7 +6697,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <f>EDATE(A211,1)</f>
         <v>39448</v>
@@ -6717,7 +6718,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <f t="shared" si="2"/>
         <v>39479</v>
@@ -6738,7 +6739,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <f t="shared" si="2"/>
         <v>39508</v>
@@ -6759,7 +6760,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <f t="shared" si="2"/>
         <v>39539</v>
@@ -6780,7 +6781,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <f t="shared" si="2"/>
         <v>39569</v>
@@ -6801,7 +6802,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <f t="shared" si="2"/>
         <v>39600</v>
@@ -6822,7 +6823,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <f t="shared" si="2"/>
         <v>39630</v>
@@ -6843,7 +6844,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f t="shared" si="2"/>
         <v>39661</v>
@@ -6864,7 +6865,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f t="shared" si="2"/>
         <v>39692</v>
@@ -6885,7 +6886,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <f t="shared" si="2"/>
         <v>39722</v>
@@ -6906,7 +6907,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f t="shared" si="2"/>
         <v>39753</v>
@@ -6933,7 +6934,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <f t="shared" si="2"/>
         <v>39783</v>
@@ -6954,7 +6955,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="48" t="s">
         <v>114</v>
       </c>
@@ -6976,7 +6977,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <f>EDATE(A224,1)</f>
         <v>39814</v>
@@ -6997,7 +6998,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <f t="shared" si="2"/>
         <v>39845</v>
@@ -7018,7 +7019,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f t="shared" si="2"/>
         <v>39873</v>
@@ -7039,7 +7040,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <f t="shared" si="2"/>
         <v>39904</v>
@@ -7060,7 +7061,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <f t="shared" si="2"/>
         <v>39934</v>
@@ -7081,7 +7082,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <f t="shared" si="2"/>
         <v>39965</v>
@@ -7106,7 +7107,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f t="shared" si="2"/>
         <v>39995</v>
@@ -7131,7 +7132,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <f t="shared" si="2"/>
         <v>40026</v>
@@ -7156,7 +7157,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <f t="shared" si="2"/>
         <v>40057</v>
@@ -7181,7 +7182,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>186</v>
@@ -7201,7 +7202,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>197</v>
@@ -7221,7 +7222,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <f>EDATE(A234,1)</f>
         <v>40087</v>
@@ -7246,7 +7247,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <f t="shared" si="2"/>
         <v>40118</v>
@@ -7271,7 +7272,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <f t="shared" si="2"/>
         <v>40148</v>
@@ -7296,7 +7297,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>200</v>
@@ -7316,7 +7317,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="48" t="s">
         <v>115</v>
       </c>
@@ -7338,7 +7339,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <f>EDATE(A239,1)</f>
         <v>40179</v>
@@ -7363,7 +7364,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f t="shared" si="2"/>
         <v>40210</v>
@@ -7388,7 +7389,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>205</v>
@@ -7405,7 +7406,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <f>EDATE(A243,1)</f>
         <v>40238</v>
@@ -7430,7 +7431,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f t="shared" si="2"/>
         <v>40269</v>
@@ -7455,7 +7456,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <f t="shared" si="2"/>
         <v>40299</v>
@@ -7480,7 +7481,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <f t="shared" si="2"/>
         <v>40330</v>
@@ -7501,7 +7502,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <f t="shared" si="2"/>
         <v>40360</v>
@@ -7522,7 +7523,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <f t="shared" si="2"/>
         <v>40391</v>
@@ -7547,7 +7548,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f t="shared" si="2"/>
         <v>40422</v>
@@ -7568,7 +7569,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <f t="shared" si="2"/>
         <v>40452</v>
@@ -7589,7 +7590,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <f t="shared" si="2"/>
         <v>40483</v>
@@ -7610,7 +7611,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f t="shared" si="2"/>
         <v>40513</v>
@@ -7635,7 +7636,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="48" t="s">
         <v>116</v>
       </c>
@@ -7657,7 +7658,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>40544</v>
@@ -7678,7 +7679,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f t="shared" si="2"/>
         <v>40575</v>
@@ -7703,7 +7704,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <f t="shared" si="2"/>
         <v>40603</v>
@@ -7724,7 +7725,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <f t="shared" ref="A259:A347" si="3">EDATE(A258,1)</f>
         <v>40634</v>
@@ -7745,7 +7746,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <f t="shared" si="3"/>
         <v>40664</v>
@@ -7766,7 +7767,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f t="shared" si="3"/>
         <v>40695</v>
@@ -7787,7 +7788,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <f t="shared" si="3"/>
         <v>40725</v>
@@ -7808,7 +7809,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -7835,7 +7836,7 @@
         <v>40766</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <f t="shared" si="3"/>
         <v>40787</v>
@@ -7860,7 +7861,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <f t="shared" si="3"/>
         <v>40817</v>
@@ -7881,7 +7882,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f t="shared" si="3"/>
         <v>40848</v>
@@ -7908,7 +7909,7 @@
         <v>40872</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <f t="shared" si="3"/>
         <v>40878</v>
@@ -7935,7 +7936,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="48" t="s">
         <v>117</v>
       </c>
@@ -7957,7 +7958,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f>EDATE(A267,1)</f>
         <v>40909</v>
@@ -7978,7 +7979,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <f t="shared" si="3"/>
         <v>40940</v>
@@ -8003,7 +8004,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <f t="shared" si="3"/>
         <v>40969</v>
@@ -8024,7 +8025,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <f t="shared" si="3"/>
         <v>41000</v>
@@ -8045,7 +8046,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <f t="shared" si="3"/>
         <v>41030</v>
@@ -8072,7 +8073,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <f t="shared" si="3"/>
         <v>41061</v>
@@ -8093,7 +8094,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <f t="shared" si="3"/>
         <v>41091</v>
@@ -8114,7 +8115,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <f t="shared" si="3"/>
         <v>41122</v>
@@ -8135,7 +8136,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23">
         <f t="shared" si="3"/>
         <v>41153</v>
@@ -8162,7 +8163,7 @@
         <v>41180</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <f t="shared" si="3"/>
         <v>41183</v>
@@ -8189,7 +8190,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <f t="shared" si="3"/>
         <v>41214</v>
@@ -8210,7 +8211,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f t="shared" si="3"/>
         <v>41244</v>
@@ -8237,7 +8238,7 @@
         <v>41260</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>217</v>
@@ -8254,7 +8255,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="48" t="s">
         <v>118</v>
       </c>
@@ -8276,7 +8277,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <f>EDATE(A280,1)</f>
         <v>41275</v>
@@ -8297,7 +8298,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f t="shared" si="3"/>
         <v>41306</v>
@@ -8322,7 +8323,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>126</v>
@@ -8341,7 +8342,7 @@
         <v>41323</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>126</v>
@@ -8360,7 +8361,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>218</v>
@@ -8377,7 +8378,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <f>EDATE(A284,1)</f>
         <v>41334</v>
@@ -8402,7 +8403,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <f t="shared" si="3"/>
         <v>41365</v>
@@ -8427,7 +8428,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <f t="shared" si="3"/>
         <v>41395</v>
@@ -8454,7 +8455,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>221</v>
@@ -8474,7 +8475,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <f>EDATE(A290,1)</f>
         <v>41426</v>
@@ -8495,7 +8496,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <f t="shared" si="3"/>
         <v>41456</v>
@@ -8522,7 +8523,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f t="shared" si="3"/>
         <v>41487</v>
@@ -8543,7 +8544,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <f t="shared" si="3"/>
         <v>41518</v>
@@ -8570,7 +8571,7 @@
         <v>41520</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>126</v>
@@ -8592,7 +8593,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>222</v>
@@ -8612,7 +8613,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <f>EDATE(A295,1)</f>
         <v>41548</v>
@@ -8639,7 +8640,7 @@
         <v>41571</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>136</v>
@@ -8661,7 +8662,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <f>EDATE(A298,1)</f>
         <v>41579</v>
@@ -8686,7 +8687,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <f t="shared" si="3"/>
         <v>41609</v>
@@ -8713,7 +8714,7 @@
         <v>41612</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>126</v>
@@ -8732,7 +8733,7 @@
         <v>41635</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>228</v>
@@ -8749,7 +8750,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>227</v>
@@ -8766,7 +8767,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="48" t="s">
         <v>119</v>
       </c>
@@ -8788,7 +8789,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <f>EDATE(A301,1)</f>
         <v>41640</v>
@@ -8813,7 +8814,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>138</v>
@@ -8833,7 +8834,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <f>EDATE(A306,1)</f>
         <v>41671</v>
@@ -8860,7 +8861,7 @@
         <v>41690</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>136</v>
@@ -8882,7 +8883,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <f>EDATE(A308,1)</f>
         <v>41699</v>
@@ -8909,7 +8910,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>230</v>
@@ -8929,7 +8930,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <f>EDATE(A310,1)</f>
         <v>41730</v>
@@ -8954,7 +8955,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f t="shared" si="3"/>
         <v>41760</v>
@@ -8981,7 +8982,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f t="shared" si="3"/>
         <v>41791</v>
@@ -9002,7 +9003,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <f t="shared" si="3"/>
         <v>41821</v>
@@ -9029,7 +9030,7 @@
         <v>41824</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>227</v>
@@ -9046,7 +9047,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f>EDATE(A315,1)</f>
         <v>41852</v>
@@ -9073,7 +9074,7 @@
         <v>41862</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>126</v>
@@ -9095,7 +9096,7 @@
         <v>41880</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>235</v>
@@ -9115,7 +9116,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <f>EDATE(A317,1)</f>
         <v>41883</v>
@@ -9142,7 +9143,7 @@
         <v>41912</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>236</v>
@@ -9162,7 +9163,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <f>EDATE(A320,1)</f>
         <v>41913</v>
@@ -9189,7 +9190,7 @@
         <v>41925</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>186</v>
@@ -9209,7 +9210,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>237</v>
@@ -9229,7 +9230,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <f>EDATE(A322,1)</f>
         <v>41944</v>
@@ -9254,7 +9255,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>138</v>
@@ -9274,7 +9275,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <f>EDATE(A325,1)</f>
         <v>41974</v>
@@ -9301,7 +9302,7 @@
         <v>41985</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>126</v>
@@ -9323,7 +9324,7 @@
         <v>42002</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>238</v>
@@ -9343,7 +9344,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="48" t="s">
         <v>120</v>
       </c>
@@ -9365,7 +9366,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <f>EDATE(A327,1)</f>
         <v>42005</v>
@@ -9392,7 +9393,7 @@
         <v>42011</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <f t="shared" si="3"/>
         <v>42036</v>
@@ -9417,7 +9418,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>126</v>
@@ -9436,7 +9437,7 @@
         <v>42058</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>239</v>
@@ -9453,7 +9454,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <f>EDATE(A332,1)</f>
         <v>42064</v>
@@ -9480,7 +9481,7 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>126</v>
@@ -9499,7 +9500,7 @@
         <v>42080</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>126</v>
@@ -9518,7 +9519,7 @@
         <v>42087</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>246</v>
@@ -9535,7 +9536,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="49"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <f>EDATE(A335,1)</f>
         <v>42095</v>
@@ -9562,7 +9563,7 @@
         <v>42095</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>242</v>
@@ -9579,7 +9580,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f>EDATE(A339,1)</f>
         <v>42125</v>
@@ -9606,7 +9607,7 @@
         <v>42139</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>151</v>
@@ -9626,7 +9627,7 @@
         <v>42145</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>243</v>
@@ -9646,7 +9647,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <f>EDATE(A341,1)</f>
         <v>42156</v>
@@ -9673,7 +9674,7 @@
         <v>42174</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>236</v>
@@ -9693,7 +9694,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f>EDATE(A344,1)</f>
         <v>42186</v>
@@ -9718,7 +9719,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <f t="shared" si="3"/>
         <v>42217</v>
@@ -9745,7 +9746,7 @@
         <v>42227</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>220</v>
@@ -9765,7 +9766,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <f>EDATE(A347,1)</f>
         <v>42248</v>
@@ -9790,7 +9791,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>128</v>
@@ -9812,7 +9813,7 @@
         <v>42275</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
         <v>245</v>
@@ -9832,7 +9833,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <f>EDATE(A349,1)</f>
         <v>42278</v>
@@ -9859,7 +9860,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>136</v>
@@ -9881,7 +9882,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>195</v>
@@ -9901,7 +9902,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <f>EDATE(A352,1)</f>
         <v>42309</v>
@@ -9928,7 +9929,7 @@
         <v>42306</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23"/>
       <c r="B356" s="20" t="s">
         <v>126</v>
@@ -9947,7 +9948,7 @@
         <v>42333</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>228</v>
@@ -9966,7 +9967,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>249</v>
@@ -9983,7 +9984,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <f>EDATE(A355,1)</f>
         <v>42339</v>
@@ -10010,7 +10011,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>250</v>
@@ -10030,7 +10031,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="48" t="s">
         <v>121</v>
       </c>
@@ -10052,7 +10053,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <f>EDATE(A359,1)</f>
         <v>42370</v>
@@ -10077,7 +10078,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>250</v>
@@ -10097,7 +10098,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <f>EDATE(A362,1)</f>
         <v>42401</v>
@@ -10122,7 +10123,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>126</v>
@@ -10144,7 +10145,7 @@
         <v>42426</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <f>EDATE(A364,1)</f>
         <v>42430</v>
@@ -10169,7 +10170,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <f>EDATE(A366,1)</f>
         <v>42461</v>
@@ -10196,7 +10197,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>136</v>
@@ -10218,7 +10219,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>254</v>
@@ -10238,7 +10239,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <f>EDATE(A367,1)</f>
         <v>42491</v>
@@ -10265,7 +10266,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>94</v>
@@ -10287,7 +10288,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>151</v>
@@ -10307,7 +10308,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>94</v>
@@ -10329,7 +10330,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>165</v>
@@ -10349,7 +10350,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <f>EDATE(A370,1)</f>
         <v>42522</v>
@@ -10376,7 +10377,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>136</v>
@@ -10398,7 +10399,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>136</v>
@@ -10420,7 +10421,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>126</v>
@@ -10442,7 +10443,7 @@
         <v>42551</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <f>EDATE(A375,1)</f>
         <v>42552</v>
@@ -10467,7 +10468,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <f t="shared" ref="A380:A412" si="4">EDATE(A379,1)</f>
         <v>42583</v>
@@ -10494,7 +10495,7 @@
         <v>42585</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>236</v>
@@ -10514,7 +10515,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <f>EDATE(A380,1)</f>
         <v>42614</v>
@@ -10541,7 +10542,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>123</v>
@@ -10563,7 +10564,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>126</v>
@@ -10585,7 +10586,7 @@
         <v>42633</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <f>EDATE(A382,1)</f>
         <v>42644</v>
@@ -10612,7 +10613,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>126</v>
@@ -10634,7 +10635,7 @@
         <v>42682</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <f>EDATE(A385,1)</f>
         <v>42675</v>
@@ -10659,7 +10660,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <f t="shared" si="4"/>
         <v>42705</v>
@@ -10686,7 +10687,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>126</v>
@@ -10708,7 +10709,7 @@
         <v>42727</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>268</v>
@@ -10728,7 +10729,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="48" t="s">
         <v>122</v>
       </c>
@@ -10750,7 +10751,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <f>EDATE(A388,1)</f>
         <v>42736</v>
@@ -10775,7 +10776,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <f t="shared" si="4"/>
         <v>42767</v>
@@ -10800,7 +10801,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <f>EDATE(A393,1)</f>
         <v>42795</v>
@@ -10827,7 +10828,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <f>EDATE(A394,1)</f>
         <v>42826</v>
@@ -10854,7 +10855,7 @@
         <v>42849</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>151</v>
@@ -10874,7 +10875,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>94</v>
@@ -10896,7 +10897,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>94</v>
@@ -10916,7 +10917,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>270</v>
@@ -10936,7 +10937,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <f>EDATE(A395,1)</f>
         <v>42856</v>
@@ -10961,7 +10962,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23">
         <f t="shared" si="4"/>
         <v>42887</v>
@@ -10982,7 +10983,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <f t="shared" si="4"/>
         <v>42917</v>
@@ -11009,7 +11010,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>272</v>
@@ -11029,7 +11030,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <f>EDATE(A402,1)</f>
         <v>42948</v>
@@ -11054,7 +11055,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <f t="shared" si="4"/>
         <v>42979</v>
@@ -11079,7 +11080,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
         <v>123</v>
@@ -11101,7 +11102,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>126</v>
@@ -11123,7 +11124,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>126</v>
@@ -11145,7 +11146,7 @@
         <v>43033</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>273</v>
@@ -11165,7 +11166,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <f>EDATE(A405,1)</f>
         <v>43009</v>
@@ -11190,7 +11191,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <f t="shared" si="4"/>
         <v>43040</v>
@@ -11217,7 +11218,7 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <f t="shared" si="4"/>
         <v>43070</v>
@@ -11244,7 +11245,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="48" t="s">
         <v>45</v>
       </c>
@@ -11266,7 +11267,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>43101</v>
       </c>
@@ -11286,7 +11287,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>43132</v>
       </c>
@@ -11312,7 +11313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>43160</v>
       </c>
@@ -11332,7 +11333,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>43191</v>
       </c>
@@ -11356,7 +11357,7 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>46</v>
@@ -11378,7 +11379,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="41"/>
       <c r="B419" s="15" t="s">
         <v>46</v>
@@ -11400,7 +11401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>43221</v>
       </c>
@@ -11422,7 +11423,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>46</v>
@@ -11446,7 +11447,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>43252</v>
       </c>
@@ -11470,7 +11471,7 @@
         <v>43226</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>43282</v>
       </c>
@@ -11496,7 +11497,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>43313</v>
       </c>
@@ -11520,7 +11521,7 @@
         <v>43139</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>46</v>
@@ -11542,7 +11543,7 @@
         <v>43320</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>48</v>
@@ -11562,7 +11563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>43344</v>
       </c>
@@ -11582,7 +11583,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>43374</v>
       </c>
@@ -11608,7 +11609,7 @@
         <v>43141</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>87</v>
@@ -11630,7 +11631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>43405</v>
       </c>
@@ -11650,7 +11651,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>43435</v>
       </c>
@@ -11676,7 +11677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="48" t="s">
         <v>56</v>
       </c>
@@ -11694,7 +11695,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>43466</v>
       </c>
@@ -11718,7 +11719,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>48</v>
@@ -11740,7 +11741,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>43497</v>
       </c>
@@ -11764,7 +11765,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>48</v>
@@ -11784,7 +11785,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>43525</v>
       </c>
@@ -11804,7 +11805,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>43556</v>
       </c>
@@ -11830,7 +11831,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>46</v>
@@ -11852,7 +11853,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>43586</v>
       </c>
@@ -11878,7 +11879,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>43617</v>
       </c>
@@ -11898,7 +11899,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>43647</v>
       </c>
@@ -11924,7 +11925,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>46</v>
@@ -11946,7 +11947,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>46</v>
@@ -11968,7 +11969,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>43678</v>
       </c>
@@ -11988,7 +11989,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>43709</v>
       </c>
@@ -12014,7 +12015,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>43739</v>
       </c>
@@ -12040,7 +12041,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>48</v>
@@ -12060,7 +12061,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>46</v>
@@ -12084,7 +12085,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>46</v>
@@ -12106,7 +12107,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>92</v>
@@ -12128,7 +12129,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>43770</v>
       </c>
@@ -12148,7 +12149,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>43800</v>
       </c>
@@ -12168,7 +12169,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="48" t="s">
         <v>70</v>
       </c>
@@ -12186,7 +12187,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>43831</v>
       </c>
@@ -12206,7 +12207,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>43862</v>
       </c>
@@ -12226,7 +12227,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43891</v>
       </c>
@@ -12246,7 +12247,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43922</v>
       </c>
@@ -12266,7 +12267,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>43952</v>
       </c>
@@ -12286,7 +12287,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43983</v>
       </c>
@@ -12306,7 +12307,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>44013</v>
       </c>
@@ -12326,7 +12327,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>44044</v>
       </c>
@@ -12346,7 +12347,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>44075</v>
       </c>
@@ -12370,7 +12371,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>44105</v>
       </c>
@@ -12396,7 +12397,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>44136</v>
       </c>
@@ -12416,7 +12417,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>44166</v>
       </c>
@@ -12442,7 +12443,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23" t="s">
         <v>74</v>
       </c>
@@ -12460,7 +12461,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>44197</v>
       </c>
@@ -12480,7 +12481,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>44228</v>
       </c>
@@ -12504,7 +12505,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>44256</v>
       </c>
@@ -12524,7 +12525,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>44287</v>
       </c>
@@ -12544,7 +12545,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>44317</v>
       </c>
@@ -12564,7 +12565,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>44348</v>
       </c>
@@ -12584,7 +12585,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>44378</v>
       </c>
@@ -12604,7 +12605,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>44409</v>
       </c>
@@ -12628,7 +12629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>44440</v>
       </c>
@@ -12648,7 +12649,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>44470</v>
       </c>
@@ -12672,7 +12673,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>91</v>
@@ -12694,7 +12695,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>87</v>
@@ -12716,7 +12717,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>43770</v>
       </c>
@@ -12740,7 +12741,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43800</v>
       </c>
@@ -12760,7 +12761,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="48" t="s">
         <v>81</v>
       </c>
@@ -12778,7 +12779,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>44562</v>
       </c>
@@ -12798,7 +12799,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>44593</v>
       </c>
@@ -12822,7 +12823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>44621</v>
       </c>
@@ -12848,7 +12849,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>44652</v>
       </c>
@@ -12874,7 +12875,7 @@
         <v>44716</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>44682</v>
       </c>
@@ -12900,7 +12901,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>44713</v>
       </c>
@@ -12920,7 +12921,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44743</v>
       </c>
@@ -12944,7 +12945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>46</v>
@@ -12966,7 +12967,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>46</v>
@@ -12990,7 +12991,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>44774</v>
       </c>
@@ -13016,7 +13017,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44805</v>
       </c>
@@ -13042,7 +13043,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>87</v>
@@ -13064,7 +13065,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>44835</v>
       </c>
@@ -13090,7 +13091,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>44866</v>
       </c>
@@ -13116,7 +13117,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>44896</v>
       </c>
@@ -13142,7 +13143,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="48" t="s">
         <v>99</v>
       </c>
@@ -13160,7 +13161,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44927</v>
       </c>
@@ -13180,7 +13181,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>44958</v>
       </c>
@@ -13204,47 +13205,53 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>44986</v>
       </c>
       <c r="B501" s="20"/>
-      <c r="C501" s="13"/>
+      <c r="C501" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D501" s="39"/>
       <c r="E501" s="9"/>
       <c r="F501" s="20"/>
-      <c r="G501" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G501" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H501" s="39"/>
       <c r="I501" s="9"/>
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>45017</v>
       </c>
       <c r="B502" s="20"/>
-      <c r="C502" s="13"/>
+      <c r="C502" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D502" s="39"/>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
-      <c r="G502" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G502" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H502" s="39"/>
       <c r="I502" s="9"/>
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>45047</v>
       </c>
-      <c r="B503" s="20"/>
+      <c r="B503" s="20" t="s">
+        <v>151</v>
+      </c>
       <c r="C503" s="13"/>
       <c r="D503" s="39"/>
       <c r="E503" s="9"/>
@@ -13256,9 +13263,11 @@
       <c r="H503" s="39"/>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
-      <c r="K503" s="20"/>
-    </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K503" s="49">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>45078</v>
       </c>
@@ -13276,7 +13285,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>45108</v>
       </c>
@@ -13294,7 +13303,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>45139</v>
       </c>
@@ -13312,7 +13321,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>45170</v>
       </c>
@@ -13330,7 +13339,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>45200</v>
       </c>
@@ -13348,7 +13357,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>45231</v>
       </c>
@@ -13366,7 +13375,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>45261</v>
       </c>
@@ -13384,7 +13393,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>45292</v>
       </c>
@@ -13402,7 +13411,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>45323</v>
       </c>
@@ -13420,7 +13429,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>45352</v>
       </c>
@@ -13438,7 +13447,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>45383</v>
       </c>
@@ -13456,7 +13465,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>45413</v>
       </c>
@@ -13474,7 +13483,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>45444</v>
       </c>
@@ -13492,7 +13501,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>45474</v>
       </c>
@@ -13510,7 +13519,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>45505</v>
       </c>
@@ -13528,7 +13537,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>45536</v>
       </c>
@@ -13546,7 +13555,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>45566</v>
       </c>
@@ -13564,7 +13573,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>45597</v>
       </c>
@@ -13582,7 +13591,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>45627</v>
       </c>
@@ -13600,7 +13609,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>45658</v>
       </c>
@@ -13618,7 +13627,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>45689</v>
       </c>
@@ -13636,7 +13645,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>45717</v>
       </c>
@@ -13654,7 +13663,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>45748</v>
       </c>
@@ -13672,7 +13681,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>45778</v>
       </c>
@@ -13690,7 +13699,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>45809</v>
       </c>
@@ -13708,7 +13717,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>45839</v>
       </c>
@@ -13726,7 +13735,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>45870</v>
       </c>
@@ -13744,7 +13753,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>45901</v>
       </c>
@@ -13762,7 +13771,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>45931</v>
       </c>
@@ -13780,7 +13789,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>45962</v>
       </c>
@@ -13798,7 +13807,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>45992</v>
       </c>
@@ -13831,10 +13840,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13857,28 +13866,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>32</v>
       </c>
@@ -13891,7 +13900,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>23</v>
       </c>
@@ -13920,7 +13929,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -13946,17 +13955,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>27</v>
       </c>
@@ -13977,7 +13986,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14004,7 +14013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14030,7 +14039,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14056,7 +14065,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14082,7 +14091,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14108,7 +14117,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14134,7 +14143,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14160,7 +14169,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14186,7 +14195,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14206,7 +14215,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14226,7 +14235,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14246,7 +14255,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14267,7 +14276,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14288,7 +14297,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14309,7 +14318,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14330,7 +14339,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14351,7 +14360,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14372,7 +14381,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14393,7 +14402,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14414,7 +14423,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14435,7 +14444,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14456,7 +14465,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14477,7 +14486,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14498,7 +14507,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14519,7 +14528,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14540,7 +14549,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14561,7 +14570,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14582,7 +14591,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14603,7 +14612,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14624,7 +14633,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14645,7 +14654,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14666,7 +14675,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14675,7 +14684,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14684,7 +14693,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14693,7 +14702,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14702,7 +14711,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14711,7 +14720,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14720,7 +14729,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14729,7 +14738,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14738,7 +14747,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14747,7 +14756,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14756,7 +14765,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14765,7 +14774,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14774,7 +14783,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14783,7 +14792,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14792,7 +14801,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14801,7 +14810,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14810,7 +14819,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14819,7 +14828,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14828,7 +14837,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14837,7 +14846,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14846,7 +14855,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14855,7 +14864,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14864,7 +14873,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14873,7 +14882,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14882,7 +14891,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14891,7 +14900,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14900,7 +14909,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14909,7 +14918,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14918,7 +14927,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14927,7 +14936,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
